--- a/12/1/2/Mensual 1983 a 2021 - Anual.xlsx
+++ b/12/1/2/Mensual 1983 a 2021 - Anual.xlsx
@@ -1784,7 +1784,7 @@
         <v>5.8</v>
       </c>
       <c r="J39">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K39">
         <v>3.8</v>
